--- a/INTLINE/data/576/DOS/M451082 - Selected Merchandise Trade At Current Market Prices Monthly Seasonally Adjusted.xlsx
+++ b/INTLINE/data/576/DOS/M451082 - Selected Merchandise Trade At Current Market Prices Monthly Seasonally Adjusted.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="360">
   <si>
     <t/>
   </si>
@@ -28,7 +28,7 @@
     <t>Table Title: Selected Merchandise Trade, (At Current Market Prices), Monthly, Seasonally Adjusted</t>
   </si>
   <si>
-    <t>Data last updated: 18/04/2022</t>
+    <t>Data last updated: 17/05/2022</t>
   </si>
   <si>
     <t>Check next release date</t>
@@ -43,6 +43,9 @@
     <t>Data Series</t>
   </si>
   <si>
+    <t xml:space="preserve">2022 Apr </t>
+  </si>
+  <si>
     <t xml:space="preserve">2022 Mar </t>
   </si>
   <si>
@@ -1084,7 +1087,7 @@
     <t>Generated by: SingStat Table Builder</t>
   </si>
   <si>
-    <t>Date generated: 22/04/2022</t>
+    <t>Date generated: 14/06/2022</t>
   </si>
   <si>
     <t>Contact: info@singstat.gov.sg</t>
@@ -1492,13 +1495,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:LP37"/>
+  <dimension ref="A1:LQ37"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="328" width="24" customWidth="1"/>
+    <col min="1" max="329" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:328" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:329" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2481,6 +2484,9 @@
         <v>0</v>
       </c>
       <c r="LP1" t="s">
+        <v>0</v>
+      </c>
+      <c r="LQ1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2517,12 +2523,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="328:328" x14ac:dyDescent="0.25">
-      <c r="LP10" s="1" t="s">
+    <row r="10" spans="329:329" x14ac:dyDescent="0.25">
+      <c r="LQ10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:328" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:329" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -3507,1096 +3513,1102 @@
       <c r="LP11" s="3" t="s">
         <v>336</v>
       </c>
+      <c r="LQ11" s="3" t="s">
+        <v>337</v>
+      </c>
     </row>
-    <row r="12" spans="1:328" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:329" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B12" s="5">
-        <v>7165717.4</v>
+        <v>7261474.1</v>
       </c>
       <c r="C12" s="5">
-        <v>6588932.9</v>
+        <v>7161401.7</v>
       </c>
       <c r="D12" s="5">
-        <v>7978252.9</v>
+        <v>6596986.4</v>
       </c>
       <c r="E12" s="5">
+        <v>7975277.8</v>
+      </c>
+      <c r="F12" s="5">
         <v>7069779.3</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <v>6576222.8</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H12" s="5">
         <v>6916416.7</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I12" s="5">
         <v>5691488.5</v>
       </c>
-      <c r="I12" s="5">
+      <c r="J12" s="5">
         <v>5896949.6</v>
       </c>
-      <c r="J12" s="5">
+      <c r="K12" s="5">
         <v>6881152.4</v>
       </c>
-      <c r="K12" s="5">
+      <c r="L12" s="5">
         <v>6866265.2</v>
       </c>
-      <c r="L12" s="6">
+      <c r="M12" s="6">
         <v>6014005</v>
       </c>
-      <c r="M12" s="5">
+      <c r="N12" s="5">
         <v>5597320.4</v>
       </c>
-      <c r="N12" s="6">
+      <c r="O12" s="6">
         <v>5748392</v>
       </c>
-      <c r="O12" s="6">
+      <c r="P12" s="6">
         <v>6701597</v>
       </c>
-      <c r="P12" s="5">
+      <c r="Q12" s="5">
         <v>5578122.9</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="R12" s="5">
         <v>5450692.7</v>
       </c>
-      <c r="R12" s="5">
+      <c r="S12" s="5">
         <v>5762490.8</v>
       </c>
-      <c r="S12" s="5">
+      <c r="T12" s="5">
         <v>4806415.5</v>
       </c>
-      <c r="T12" s="5">
+      <c r="U12" s="5">
         <v>5301830.6</v>
       </c>
-      <c r="U12" s="5">
+      <c r="V12" s="5">
         <v>5854758.9</v>
       </c>
-      <c r="V12" s="5">
+      <c r="W12" s="5">
         <v>6488308.3</v>
       </c>
-      <c r="W12" s="5">
+      <c r="X12" s="5">
         <v>5871467.4</v>
       </c>
-      <c r="X12" s="5">
+      <c r="Y12" s="5">
         <v>6564517.5</v>
       </c>
-      <c r="Y12" s="6">
+      <c r="Z12" s="6">
         <v>7834051</v>
       </c>
-      <c r="Z12" s="5">
+      <c r="AA12" s="5">
         <v>6879195.3</v>
       </c>
-      <c r="AA12" s="5">
+      <c r="AB12" s="5">
         <v>7474927.1</v>
       </c>
-      <c r="AB12" s="5">
+      <c r="AC12" s="5">
         <v>6854094.5</v>
       </c>
-      <c r="AC12" s="5">
+      <c r="AD12" s="5">
         <v>6048211.3</v>
       </c>
-      <c r="AD12" s="5">
+      <c r="AE12" s="5">
         <v>5794329.1</v>
       </c>
-      <c r="AE12" s="5">
+      <c r="AF12" s="5">
         <v>6654128.6</v>
       </c>
-      <c r="AF12" s="6">
+      <c r="AG12" s="6">
         <v>5858805</v>
       </c>
-      <c r="AG12" s="5">
+      <c r="AH12" s="5">
         <v>6421595.6</v>
       </c>
-      <c r="AH12" s="5">
+      <c r="AI12" s="5">
         <v>5381620.8</v>
       </c>
-      <c r="AI12" s="5">
+      <c r="AJ12" s="5">
         <v>5821076.4</v>
       </c>
-      <c r="AJ12" s="5">
+      <c r="AK12" s="5">
         <v>5336043.3</v>
       </c>
-      <c r="AK12" s="5">
+      <c r="AL12" s="5">
         <v>5758988.5</v>
       </c>
-      <c r="AL12" s="5">
+      <c r="AM12" s="5">
         <v>5872661.5</v>
       </c>
-      <c r="AM12" s="5">
+      <c r="AN12" s="5">
         <v>5603609.4</v>
       </c>
-      <c r="AN12" s="6">
+      <c r="AO12" s="6">
         <v>5756164</v>
       </c>
-      <c r="AO12" s="5">
+      <c r="AP12" s="5">
         <v>6348326.8</v>
       </c>
-      <c r="AP12" s="5">
+      <c r="AQ12" s="5">
         <v>6588762.2</v>
       </c>
-      <c r="AQ12" s="6">
+      <c r="AR12" s="6">
         <v>6341851</v>
       </c>
-      <c r="AR12" s="5">
+      <c r="AS12" s="5">
         <v>6569396.9</v>
       </c>
-      <c r="AS12" s="5">
+      <c r="AT12" s="5">
         <v>5994415.1</v>
       </c>
-      <c r="AT12" s="5">
+      <c r="AU12" s="5">
         <v>6253283.6</v>
       </c>
-      <c r="AU12" s="5">
+      <c r="AV12" s="5">
         <v>5800593.8</v>
       </c>
-      <c r="AV12" s="5">
+      <c r="AW12" s="5">
         <v>5708284.8</v>
       </c>
-      <c r="AW12" s="6">
+      <c r="AX12" s="6">
         <v>5862066</v>
       </c>
-      <c r="AX12" s="5">
+      <c r="AY12" s="5">
         <v>5377796.9</v>
       </c>
-      <c r="AY12" s="5">
+      <c r="AZ12" s="5">
         <v>5688755.1</v>
       </c>
-      <c r="AZ12" s="5">
+      <c r="BA12" s="5">
         <v>5672354.8</v>
       </c>
-      <c r="BA12" s="5">
+      <c r="BB12" s="5">
         <v>6010191.4</v>
       </c>
-      <c r="BB12" s="5">
+      <c r="BC12" s="5">
         <v>6814991.4</v>
       </c>
-      <c r="BC12" s="5">
+      <c r="BD12" s="5">
         <v>6778478.5</v>
       </c>
-      <c r="BD12" s="6">
+      <c r="BE12" s="6">
         <v>5908310</v>
       </c>
-      <c r="BE12" s="5">
+      <c r="BF12" s="5">
         <v>5093162.9</v>
       </c>
-      <c r="BF12" s="5">
+      <c r="BG12" s="5">
         <v>4953444.2</v>
       </c>
-      <c r="BG12" s="5">
+      <c r="BH12" s="5">
         <v>5215766.1</v>
       </c>
-      <c r="BH12" s="5">
+      <c r="BI12" s="5">
         <v>6174262.6</v>
       </c>
-      <c r="BI12" s="6">
+      <c r="BJ12" s="6">
         <v>4684837</v>
       </c>
-      <c r="BJ12" s="6">
+      <c r="BK12" s="6">
         <v>5219875</v>
       </c>
-      <c r="BK12" s="5">
+      <c r="BL12" s="5">
         <v>5177224.6</v>
       </c>
-      <c r="BL12" s="5">
+      <c r="BM12" s="5">
         <v>6414717.7</v>
       </c>
-      <c r="BM12" s="5">
+      <c r="BN12" s="5">
         <v>5803591.4</v>
       </c>
-      <c r="BN12" s="5">
+      <c r="BO12" s="5">
         <v>6081844.5</v>
       </c>
-      <c r="BO12" s="5">
+      <c r="BP12" s="5">
         <v>4486437.7</v>
       </c>
-      <c r="BP12" s="5">
+      <c r="BQ12" s="5">
         <v>4446221.9</v>
       </c>
-      <c r="BQ12" s="5">
+      <c r="BR12" s="5">
         <v>5333105.5</v>
       </c>
-      <c r="BR12" s="6">
+      <c r="BS12" s="6">
         <v>3875134</v>
       </c>
-      <c r="BS12" s="5">
+      <c r="BT12" s="5">
         <v>4855940.5</v>
       </c>
-      <c r="BT12" s="5">
+      <c r="BU12" s="5">
         <v>4762057.1</v>
       </c>
-      <c r="BU12" s="5">
+      <c r="BV12" s="5">
         <v>4051367.4</v>
       </c>
-      <c r="BV12" s="5">
+      <c r="BW12" s="5">
         <v>4838781.9</v>
       </c>
-      <c r="BW12" s="5">
+      <c r="BX12" s="5">
         <v>7997628.5</v>
       </c>
-      <c r="BX12" s="5">
+      <c r="BY12" s="5">
         <v>3948227.7</v>
       </c>
-      <c r="BY12" s="5">
+      <c r="BZ12" s="5">
         <v>4388427.3</v>
       </c>
-      <c r="BZ12" s="5">
+      <c r="CA12" s="5">
         <v>3424618.2</v>
       </c>
-      <c r="CA12" s="5">
+      <c r="CB12" s="5">
         <v>3801474.2</v>
       </c>
-      <c r="CB12" s="5">
+      <c r="CC12" s="5">
         <v>4906583.3</v>
       </c>
-      <c r="CC12" s="5">
+      <c r="CD12" s="5">
         <v>6360569.4</v>
       </c>
-      <c r="CD12" s="5">
+      <c r="CE12" s="5">
         <v>4208433.2</v>
       </c>
-      <c r="CE12" s="5">
+      <c r="CF12" s="5">
         <v>4753283.2</v>
       </c>
-      <c r="CF12" s="5">
+      <c r="CG12" s="5">
         <v>4073335.1</v>
       </c>
-      <c r="CG12" s="6">
+      <c r="CH12" s="6">
         <v>4485926</v>
       </c>
-      <c r="CH12" s="5">
+      <c r="CI12" s="5">
         <v>4775347.5</v>
       </c>
-      <c r="CI12" s="5">
+      <c r="CJ12" s="5">
         <v>4345229.9</v>
       </c>
-      <c r="CJ12" s="5">
+      <c r="CK12" s="5">
         <v>2565504.9</v>
       </c>
-      <c r="CK12" s="5">
+      <c r="CL12" s="5">
         <v>5825672.6</v>
       </c>
-      <c r="CL12" s="5">
+      <c r="CM12" s="5">
         <v>3405385.1</v>
       </c>
-      <c r="CM12" s="5">
+      <c r="CN12" s="5">
         <v>3414596.8</v>
       </c>
-      <c r="CN12" s="5">
+      <c r="CO12" s="5">
         <v>4107428.1</v>
       </c>
-      <c r="CO12" s="5">
+      <c r="CP12" s="5">
         <v>4850817.2</v>
       </c>
-      <c r="CP12" s="5">
+      <c r="CQ12" s="5">
         <v>5312418.6</v>
       </c>
-      <c r="CQ12" s="5">
+      <c r="CR12" s="5">
         <v>4391614.3</v>
       </c>
-      <c r="CR12" s="6">
+      <c r="CS12" s="6">
         <v>4924708</v>
       </c>
-      <c r="CS12" s="5">
+      <c r="CT12" s="5">
         <v>6075305.5</v>
       </c>
-      <c r="CT12" s="5">
+      <c r="CU12" s="5">
         <v>5025260.6</v>
       </c>
-      <c r="CU12" s="6">
+      <c r="CV12" s="6">
         <v>5343755</v>
       </c>
-      <c r="CV12" s="5">
+      <c r="CW12" s="5">
         <v>5471752.4</v>
       </c>
-      <c r="CW12" s="5">
+      <c r="CX12" s="5">
         <v>5356847.2</v>
       </c>
-      <c r="CX12" s="5">
+      <c r="CY12" s="5">
         <v>3365273.5</v>
       </c>
-      <c r="CY12" s="5">
+      <c r="CZ12" s="5">
         <v>6041603.7</v>
       </c>
-      <c r="CZ12" s="5">
+      <c r="DA12" s="5">
         <v>5426702.6</v>
       </c>
-      <c r="DA12" s="5">
+      <c r="DB12" s="5">
         <v>5054142.3</v>
       </c>
-      <c r="DB12" s="5">
+      <c r="DC12" s="5">
         <v>5488481.2</v>
       </c>
-      <c r="DC12" s="5">
+      <c r="DD12" s="5">
         <v>5005502.8</v>
       </c>
-      <c r="DD12" s="5">
+      <c r="DE12" s="5">
         <v>5435791.7</v>
       </c>
-      <c r="DE12" s="5">
+      <c r="DF12" s="5">
         <v>4930440.1</v>
       </c>
-      <c r="DF12" s="5">
+      <c r="DG12" s="5">
         <v>5513082.7</v>
       </c>
-      <c r="DG12" s="5">
+      <c r="DH12" s="5">
         <v>5650256.8</v>
       </c>
-      <c r="DH12" s="5">
+      <c r="DI12" s="5">
         <v>5717183.1</v>
       </c>
-      <c r="DI12" s="5">
+      <c r="DJ12" s="5">
         <v>5533128.8</v>
       </c>
-      <c r="DJ12" s="5">
+      <c r="DK12" s="5">
         <v>4977097.2</v>
       </c>
-      <c r="DK12" s="5">
+      <c r="DL12" s="5">
         <v>5432264.1</v>
       </c>
-      <c r="DL12" s="5">
+      <c r="DM12" s="5">
         <v>5320127.1</v>
       </c>
-      <c r="DM12" s="5">
+      <c r="DN12" s="5">
         <v>5957960.9</v>
       </c>
-      <c r="DN12" s="5">
+      <c r="DO12" s="5">
         <v>5478756.8</v>
       </c>
-      <c r="DO12" s="5">
+      <c r="DP12" s="5">
         <v>6805859.7</v>
       </c>
-      <c r="DP12" s="5">
+      <c r="DQ12" s="5">
         <v>5954068.2</v>
       </c>
-      <c r="DQ12" s="5">
+      <c r="DR12" s="5">
         <v>5151284.2</v>
       </c>
-      <c r="DR12" s="5">
+      <c r="DS12" s="5">
         <v>5796436.4</v>
       </c>
-      <c r="DS12" s="5">
+      <c r="DT12" s="5">
         <v>6054294.2</v>
       </c>
-      <c r="DT12" s="5">
+      <c r="DU12" s="5">
         <v>5681927.9</v>
       </c>
-      <c r="DU12" s="5">
+      <c r="DV12" s="5">
         <v>6160067.6</v>
       </c>
-      <c r="DV12" s="5">
+      <c r="DW12" s="5">
         <v>6609896.2</v>
       </c>
-      <c r="DW12" s="5">
+      <c r="DX12" s="5">
         <v>3779809.2</v>
       </c>
-      <c r="DX12" s="5">
+      <c r="DY12" s="5">
         <v>5368470.9</v>
       </c>
-      <c r="DY12" s="5">
+      <c r="DZ12" s="5">
         <v>5428038.2</v>
       </c>
-      <c r="DZ12" s="5">
+      <c r="EA12" s="5">
         <v>5555801.3</v>
       </c>
-      <c r="EA12" s="5">
+      <c r="EB12" s="5">
         <v>4863519.6</v>
       </c>
-      <c r="EB12" s="5">
+      <c r="EC12" s="5">
         <v>5282286.8</v>
       </c>
-      <c r="EC12" s="5">
+      <c r="ED12" s="5">
         <v>6119382.9</v>
       </c>
-      <c r="ED12" s="5">
+      <c r="EE12" s="5">
         <v>5643137.3</v>
       </c>
-      <c r="EE12" s="5">
+      <c r="EF12" s="5">
         <v>4943971.9</v>
       </c>
-      <c r="EF12" s="5">
+      <c r="EG12" s="5">
         <v>5348433.8</v>
       </c>
-      <c r="EG12" s="5">
+      <c r="EH12" s="5">
         <v>4666519.4</v>
       </c>
-      <c r="EH12" s="5">
+      <c r="EI12" s="5">
         <v>5317116.5</v>
       </c>
-      <c r="EI12" s="5">
+      <c r="EJ12" s="5">
         <v>4833534.8</v>
       </c>
-      <c r="EJ12" s="5">
+      <c r="EK12" s="5">
         <v>5059864.7</v>
       </c>
-      <c r="EK12" s="5">
+      <c r="EL12" s="5">
         <v>5225803.6</v>
       </c>
-      <c r="EL12" s="5">
+      <c r="EM12" s="5">
         <v>5331102.2</v>
       </c>
-      <c r="EM12" s="5">
+      <c r="EN12" s="5">
         <v>5255658.9</v>
       </c>
-      <c r="EN12" s="6">
+      <c r="EO12" s="6">
         <v>5396068</v>
       </c>
-      <c r="EO12" s="5">
+      <c r="EP12" s="5">
         <v>5476350.4</v>
       </c>
-      <c r="EP12" s="5">
+      <c r="EQ12" s="5">
         <v>5217022.5</v>
       </c>
-      <c r="EQ12" s="5">
+      <c r="ER12" s="5">
         <v>5513943.9</v>
       </c>
-      <c r="ER12" s="5">
+      <c r="ES12" s="5">
         <v>4695596.2</v>
       </c>
-      <c r="ES12" s="5">
+      <c r="ET12" s="5">
         <v>5043264.4</v>
       </c>
-      <c r="ET12" s="5">
+      <c r="EU12" s="5">
         <v>4509661.6</v>
       </c>
-      <c r="EU12" s="5">
+      <c r="EV12" s="5">
         <v>4513110.2</v>
       </c>
-      <c r="EV12" s="5">
+      <c r="EW12" s="5">
         <v>4733943.5</v>
       </c>
-      <c r="EW12" s="5">
+      <c r="EX12" s="5">
         <v>4260136.9</v>
       </c>
-      <c r="EX12" s="5">
+      <c r="EY12" s="5">
         <v>4208268.7</v>
       </c>
-      <c r="EY12" s="5">
+      <c r="EZ12" s="5">
         <v>4342672.3</v>
       </c>
-      <c r="EZ12" s="5">
+      <c r="FA12" s="5">
         <v>3604858.9</v>
       </c>
-      <c r="FA12" s="5">
+      <c r="FB12" s="5">
         <v>3826359.4</v>
       </c>
-      <c r="FB12" s="5">
+      <c r="FC12" s="5">
         <v>3786775.6</v>
       </c>
-      <c r="FC12" s="6">
+      <c r="FD12" s="6">
         <v>4739621</v>
       </c>
-      <c r="FD12" s="5">
+      <c r="FE12" s="5">
         <v>4668614.6</v>
       </c>
-      <c r="FE12" s="5">
+      <c r="FF12" s="5">
         <v>5156637.7</v>
       </c>
-      <c r="FF12" s="5">
+      <c r="FG12" s="5">
         <v>5370397.8</v>
       </c>
-      <c r="FG12" s="5">
+      <c r="FH12" s="5">
         <v>6331957.9</v>
       </c>
-      <c r="FH12" s="5">
+      <c r="FI12" s="5">
         <v>6569047.3</v>
       </c>
-      <c r="FI12" s="5">
+      <c r="FJ12" s="5">
         <v>5781701.3</v>
       </c>
-      <c r="FJ12" s="5">
+      <c r="FK12" s="5">
         <v>5598365.9</v>
       </c>
-      <c r="FK12" s="5">
+      <c r="FL12" s="5">
         <v>5468693.6</v>
       </c>
-      <c r="FL12" s="6">
+      <c r="FM12" s="6">
         <v>5125773</v>
       </c>
-      <c r="FM12" s="5">
+      <c r="FN12" s="5">
         <v>5655262.1</v>
       </c>
-      <c r="FN12" s="5">
+      <c r="FO12" s="5">
         <v>5816074.4</v>
       </c>
-      <c r="FO12" s="5">
+      <c r="FP12" s="5">
         <v>5621955.7</v>
       </c>
-      <c r="FP12" s="5">
+      <c r="FQ12" s="5">
         <v>5553831.8</v>
       </c>
-      <c r="FQ12" s="5">
+      <c r="FR12" s="5">
         <v>5782745.4</v>
       </c>
-      <c r="FR12" s="5">
+      <c r="FS12" s="5">
         <v>5558007.5</v>
       </c>
-      <c r="FS12" s="5">
+      <c r="FT12" s="5">
         <v>5276777.6</v>
       </c>
-      <c r="FT12" s="5">
+      <c r="FU12" s="5">
         <v>5311808.5</v>
       </c>
-      <c r="FU12" s="5">
+      <c r="FV12" s="5">
         <v>5494408.7</v>
       </c>
-      <c r="FV12" s="5">
+      <c r="FW12" s="5">
         <v>5721479.8</v>
       </c>
-      <c r="FW12" s="5">
+      <c r="FX12" s="5">
         <v>5286310.4</v>
       </c>
-      <c r="FX12" s="5">
+      <c r="FY12" s="5">
         <v>6198280.7</v>
       </c>
-      <c r="FY12" s="5">
+      <c r="FZ12" s="5">
         <v>5557493.5</v>
       </c>
-      <c r="FZ12" s="5">
+      <c r="GA12" s="5">
         <v>5620502.9</v>
       </c>
-      <c r="GA12" s="5">
+      <c r="GB12" s="5">
         <v>5370250.6</v>
       </c>
-      <c r="GB12" s="5">
+      <c r="GC12" s="5">
         <v>5358807.8</v>
       </c>
-      <c r="GC12" s="5">
+      <c r="GD12" s="5">
         <v>5427547.3</v>
       </c>
-      <c r="GD12" s="5">
+      <c r="GE12" s="5">
         <v>5566296.7</v>
       </c>
-      <c r="GE12" s="5">
+      <c r="GF12" s="5">
         <v>5297779.3</v>
       </c>
-      <c r="GF12" s="5">
+      <c r="GG12" s="5">
         <v>5369578.3</v>
       </c>
-      <c r="GG12" s="5">
+      <c r="GH12" s="5">
         <v>5501886.5</v>
       </c>
-      <c r="GH12" s="5">
+      <c r="GI12" s="5">
         <v>5746910.6</v>
       </c>
-      <c r="GI12" s="5">
+      <c r="GJ12" s="5">
         <v>6404763.6</v>
       </c>
-      <c r="GJ12" s="5">
+      <c r="GK12" s="5">
         <v>6259748.4</v>
       </c>
-      <c r="GK12" s="5">
+      <c r="GL12" s="5">
         <v>5918741.8</v>
       </c>
-      <c r="GL12" s="5">
+      <c r="GM12" s="5">
         <v>5883148.6</v>
       </c>
-      <c r="GM12" s="5">
+      <c r="GN12" s="5">
         <v>6094987.4</v>
       </c>
-      <c r="GN12" s="5">
+      <c r="GO12" s="5">
         <v>5752899.1</v>
       </c>
-      <c r="GO12" s="5">
+      <c r="GP12" s="5">
         <v>5805248.5</v>
       </c>
-      <c r="GP12" s="5">
+      <c r="GQ12" s="5">
         <v>5740093.8</v>
       </c>
-      <c r="GQ12" s="5">
+      <c r="GR12" s="5">
         <v>6340397.4</v>
       </c>
-      <c r="GR12" s="5">
+      <c r="GS12" s="5">
         <v>6345225.5</v>
       </c>
-      <c r="GS12" s="5">
+      <c r="GT12" s="5">
         <v>6154036.2</v>
       </c>
-      <c r="GT12" s="5">
+      <c r="GU12" s="5">
         <v>5652695.4</v>
       </c>
-      <c r="GU12" s="5">
+      <c r="GV12" s="5">
         <v>5799566.8</v>
       </c>
-      <c r="GV12" s="5">
+      <c r="GW12" s="5">
         <v>5222216.8</v>
       </c>
-      <c r="GW12" s="5">
+      <c r="GX12" s="5">
         <v>5798882.6</v>
       </c>
-      <c r="GX12" s="5">
+      <c r="GY12" s="5">
         <v>5627956.7</v>
       </c>
-      <c r="GY12" s="5">
+      <c r="GZ12" s="5">
         <v>5342225.9</v>
       </c>
-      <c r="GZ12" s="5">
+      <c r="HA12" s="5">
         <v>5924210.8</v>
       </c>
-      <c r="HA12" s="5">
+      <c r="HB12" s="5">
         <v>5347370.9</v>
       </c>
-      <c r="HB12" s="5">
+      <c r="HC12" s="5">
         <v>5488428.6</v>
       </c>
-      <c r="HC12" s="5">
+      <c r="HD12" s="5">
         <v>5216558.8</v>
       </c>
-      <c r="HD12" s="5">
+      <c r="HE12" s="5">
         <v>4811021.4</v>
       </c>
-      <c r="HE12" s="5">
+      <c r="HF12" s="5">
         <v>5144874.8</v>
       </c>
-      <c r="HF12" s="5">
+      <c r="HG12" s="5">
         <v>5018785.4</v>
       </c>
-      <c r="HG12" s="5">
+      <c r="HH12" s="5">
         <v>5086259.7</v>
       </c>
-      <c r="HH12" s="5">
+      <c r="HI12" s="5">
         <v>5043053.2</v>
       </c>
-      <c r="HI12" s="5">
+      <c r="HJ12" s="5">
         <v>5057871.2</v>
       </c>
-      <c r="HJ12" s="6">
+      <c r="HK12" s="6">
         <v>4999448</v>
       </c>
-      <c r="HK12" s="5">
+      <c r="HL12" s="5">
         <v>4916045.6</v>
       </c>
-      <c r="HL12" s="5">
+      <c r="HM12" s="5">
         <v>4972514.9</v>
       </c>
-      <c r="HM12" s="5">
+      <c r="HN12" s="5">
         <v>4580633.8</v>
       </c>
-      <c r="HN12" s="5">
+      <c r="HO12" s="5">
         <v>4187399.2</v>
       </c>
-      <c r="HO12" s="5">
+      <c r="HP12" s="5">
         <v>4226974.9</v>
       </c>
-      <c r="HP12" s="5">
+      <c r="HQ12" s="5">
         <v>4235854.2</v>
       </c>
-      <c r="HQ12" s="5">
+      <c r="HR12" s="5">
         <v>3863623.4</v>
       </c>
-      <c r="HR12" s="5">
+      <c r="HS12" s="5">
         <v>4229085.6</v>
       </c>
-      <c r="HS12" s="5">
+      <c r="HT12" s="5">
         <v>4102518.2</v>
       </c>
-      <c r="HT12" s="5">
+      <c r="HU12" s="5">
         <v>4039437.6</v>
       </c>
-      <c r="HU12" s="5">
+      <c r="HV12" s="5">
         <v>3824672.3</v>
       </c>
-      <c r="HV12" s="5">
+      <c r="HW12" s="5">
         <v>3969541.6</v>
       </c>
-      <c r="HW12" s="5">
+      <c r="HX12" s="5">
         <v>3728486.5</v>
       </c>
-      <c r="HX12" s="5">
+      <c r="HY12" s="5">
         <v>3731041.3</v>
       </c>
-      <c r="HY12" s="5">
+      <c r="HZ12" s="5">
         <v>3815882.6</v>
       </c>
-      <c r="HZ12" s="5">
+      <c r="IA12" s="5">
         <v>4023717.5</v>
       </c>
-      <c r="IA12" s="5">
+      <c r="IB12" s="5">
         <v>3922950.3</v>
       </c>
-      <c r="IB12" s="6">
+      <c r="IC12" s="6">
         <v>4156166</v>
       </c>
-      <c r="IC12" s="5">
+      <c r="ID12" s="5">
         <v>4242912.7</v>
       </c>
-      <c r="ID12" s="5">
+      <c r="IE12" s="5">
         <v>4185438.3</v>
       </c>
-      <c r="IE12" s="5">
+      <c r="IF12" s="5">
         <v>3771892.9</v>
       </c>
-      <c r="IF12" s="5">
+      <c r="IG12" s="5">
         <v>4298816.4</v>
       </c>
-      <c r="IG12" s="5">
+      <c r="IH12" s="5">
         <v>4167024.2</v>
       </c>
-      <c r="IH12" s="5">
+      <c r="II12" s="5">
         <v>3910817.2</v>
       </c>
-      <c r="II12" s="6">
+      <c r="IJ12" s="6">
         <v>3982235</v>
       </c>
-      <c r="IJ12" s="5">
+      <c r="IK12" s="5">
         <v>4070638.1</v>
       </c>
-      <c r="IK12" s="5">
+      <c r="IL12" s="5">
         <v>4084229.8</v>
       </c>
-      <c r="IL12" s="5">
+      <c r="IM12" s="5">
         <v>3859076.3</v>
       </c>
-      <c r="IM12" s="5">
+      <c r="IN12" s="5">
         <v>3958037.1</v>
       </c>
-      <c r="IN12" s="5">
+      <c r="IO12" s="5">
         <v>3472652.3</v>
       </c>
-      <c r="IO12" s="5">
+      <c r="IP12" s="5">
         <v>3794413.2</v>
       </c>
-      <c r="IP12" s="5">
+      <c r="IQ12" s="5">
         <v>3654872.6</v>
       </c>
-      <c r="IQ12" s="6">
+      <c r="IR12" s="6">
         <v>3764431</v>
       </c>
-      <c r="IR12" s="5">
+      <c r="IS12" s="5">
         <v>4173977.5</v>
       </c>
-      <c r="IS12" s="5">
+      <c r="IT12" s="5">
         <v>4438687.9</v>
       </c>
-      <c r="IT12" s="6">
+      <c r="IU12" s="6">
         <v>4745117</v>
       </c>
-      <c r="IU12" s="5">
+      <c r="IV12" s="5">
         <v>5357470.5</v>
       </c>
-      <c r="IV12" s="5">
+      <c r="IW12" s="5">
         <v>5325354.2</v>
       </c>
-      <c r="IW12" s="5">
+      <c r="IX12" s="5">
         <v>5482714.3</v>
       </c>
-      <c r="IX12" s="6">
+      <c r="IY12" s="6">
         <v>5928975</v>
       </c>
-      <c r="IY12" s="5">
+      <c r="IZ12" s="5">
         <v>5739974.4</v>
       </c>
-      <c r="IZ12" s="5">
+      <c r="JA12" s="5">
         <v>5995743.5</v>
       </c>
-      <c r="JA12" s="5">
+      <c r="JB12" s="5">
         <v>5759306.2</v>
       </c>
-      <c r="JB12" s="6">
+      <c r="JC12" s="6">
         <v>5907238</v>
       </c>
-      <c r="JC12" s="5">
+      <c r="JD12" s="5">
         <v>6199453.4</v>
       </c>
-      <c r="JD12" s="5">
+      <c r="JE12" s="5">
         <v>5112953.1</v>
       </c>
-      <c r="JE12" s="5">
+      <c r="JF12" s="5">
         <v>5127041.5</v>
       </c>
-      <c r="JF12" s="5">
+      <c r="JG12" s="5">
         <v>5294796.4</v>
       </c>
-      <c r="JG12" s="5">
+      <c r="JH12" s="5">
         <v>5028756.9</v>
       </c>
-      <c r="JH12" s="6">
+      <c r="JI12" s="6">
         <v>5011968</v>
       </c>
-      <c r="JI12" s="5">
+      <c r="JJ12" s="5">
         <v>5063682.2</v>
       </c>
-      <c r="JJ12" s="5">
+      <c r="JK12" s="5">
         <v>5430323.7</v>
       </c>
-      <c r="JK12" s="5">
+      <c r="JL12" s="5">
         <v>5012809.2</v>
       </c>
-      <c r="JL12" s="6">
+      <c r="JM12" s="6">
         <v>4992205</v>
       </c>
-      <c r="JM12" s="5">
+      <c r="JN12" s="5">
         <v>4972017.6</v>
       </c>
-      <c r="JN12" s="5">
+      <c r="JO12" s="5">
         <v>5157003.7</v>
       </c>
-      <c r="JO12" s="5">
+      <c r="JP12" s="5">
         <v>5029216.6</v>
       </c>
-      <c r="JP12" s="5">
+      <c r="JQ12" s="5">
         <v>5027913.1</v>
       </c>
-      <c r="JQ12" s="5">
+      <c r="JR12" s="5">
         <v>5012899.4</v>
       </c>
-      <c r="JR12" s="5">
+      <c r="JS12" s="5">
         <v>4729881.9</v>
       </c>
-      <c r="JS12" s="5">
+      <c r="JT12" s="5">
         <v>4586261.2</v>
       </c>
-      <c r="JT12" s="6">
+      <c r="JU12" s="6">
         <v>4619438</v>
       </c>
-      <c r="JU12" s="5">
+      <c r="JV12" s="5">
         <v>4434448.9</v>
       </c>
-      <c r="JV12" s="5">
+      <c r="JW12" s="5">
         <v>4207863.2</v>
       </c>
-      <c r="JW12" s="5">
+      <c r="JX12" s="5">
         <v>4257796.6</v>
       </c>
-      <c r="JX12" s="5">
+      <c r="JY12" s="5">
         <v>4434468.3</v>
       </c>
-      <c r="JY12" s="5">
+      <c r="JZ12" s="5">
         <v>4206546.2</v>
       </c>
-      <c r="JZ12" s="5">
+      <c r="KA12" s="5">
         <v>4147503.1</v>
       </c>
-      <c r="KA12" s="5">
+      <c r="KB12" s="5">
         <v>4339892.5</v>
       </c>
-      <c r="KB12" s="5">
+      <c r="KC12" s="5">
         <v>4277790.3</v>
       </c>
-      <c r="KC12" s="5">
+      <c r="KD12" s="5">
         <v>4527059.3</v>
       </c>
-      <c r="KD12" s="6">
+      <c r="KE12" s="6">
         <v>4325862</v>
       </c>
-      <c r="KE12" s="5">
+      <c r="KF12" s="5">
         <v>5069207.8</v>
       </c>
-      <c r="KF12" s="5">
+      <c r="KG12" s="5">
         <v>4939538.1</v>
       </c>
-      <c r="KG12" s="5">
+      <c r="KH12" s="5">
         <v>5360933.5</v>
       </c>
-      <c r="KH12" s="5">
+      <c r="KI12" s="5">
         <v>5477815.1</v>
       </c>
-      <c r="KI12" s="5">
+      <c r="KJ12" s="5">
         <v>5533652.3</v>
       </c>
-      <c r="KJ12" s="5">
+      <c r="KK12" s="5">
         <v>5771664.7</v>
       </c>
-      <c r="KK12" s="5">
+      <c r="KL12" s="5">
         <v>5673377.3</v>
       </c>
-      <c r="KL12" s="5">
+      <c r="KM12" s="5">
         <v>5646481.5</v>
       </c>
-      <c r="KM12" s="5">
+      <c r="KN12" s="5">
         <v>5490678.8</v>
       </c>
-      <c r="KN12" s="5">
+      <c r="KO12" s="5">
         <v>5481839.9</v>
       </c>
-      <c r="KO12" s="5">
+      <c r="KP12" s="5">
         <v>5274826.3</v>
       </c>
-      <c r="KP12" s="5">
+      <c r="KQ12" s="5">
         <v>5491037.6</v>
       </c>
-      <c r="KQ12" s="5">
+      <c r="KR12" s="5">
         <v>4934863.1</v>
       </c>
-      <c r="KR12" s="5">
+      <c r="KS12" s="5">
         <v>5201933.6</v>
       </c>
-      <c r="KS12" s="5">
+      <c r="KT12" s="5">
         <v>4973409.6</v>
       </c>
-      <c r="KT12" s="5">
+      <c r="KU12" s="5">
         <v>4940892.8</v>
       </c>
-      <c r="KU12" s="5">
+      <c r="KV12" s="5">
         <v>4857366.6</v>
       </c>
-      <c r="KV12" s="5">
+      <c r="KW12" s="5">
         <v>4709743.8</v>
       </c>
-      <c r="KW12" s="5">
+      <c r="KX12" s="5">
         <v>4870917.8</v>
       </c>
-      <c r="KX12" s="5">
+      <c r="KY12" s="5">
         <v>4836927.3</v>
       </c>
-      <c r="KY12" s="5">
+      <c r="KZ12" s="5">
         <v>5189538.2</v>
       </c>
-      <c r="KZ12" s="5">
+      <c r="LA12" s="5">
         <v>5074311.1</v>
       </c>
-      <c r="LA12" s="5">
+      <c r="LB12" s="5">
         <v>5348719.4</v>
       </c>
-      <c r="LB12" s="5">
+      <c r="LC12" s="5">
         <v>5397920.1</v>
       </c>
-      <c r="LC12" s="5">
+      <c r="LD12" s="5">
         <v>5454066.4</v>
       </c>
-      <c r="LD12" s="5">
+      <c r="LE12" s="5">
         <v>5468327.4</v>
       </c>
-      <c r="LE12" s="5">
+      <c r="LF12" s="5">
         <v>5362367.1</v>
       </c>
-      <c r="LF12" s="5">
+      <c r="LG12" s="5">
         <v>5414920.2</v>
       </c>
-      <c r="LG12" s="5">
+      <c r="LH12" s="5">
         <v>5548273.2</v>
       </c>
-      <c r="LH12" s="5">
+      <c r="LI12" s="5">
         <v>5409118.2</v>
       </c>
-      <c r="LI12" s="5">
+      <c r="LJ12" s="5">
         <v>5468786.3</v>
       </c>
-      <c r="LJ12" s="5">
+      <c r="LK12" s="5">
         <v>5601159.5</v>
       </c>
-      <c r="LK12" s="5">
+      <c r="LL12" s="5">
         <v>5374044.2</v>
       </c>
-      <c r="LL12" s="5">
+      <c r="LM12" s="5">
         <v>5514493.6</v>
       </c>
-      <c r="LM12" s="5">
+      <c r="LN12" s="5">
         <v>5186353.5</v>
       </c>
-      <c r="LN12" s="5">
+      <c r="LO12" s="5">
         <v>5005879.4</v>
       </c>
-      <c r="LO12" s="5">
+      <c r="LP12" s="5">
         <v>4788219.7</v>
       </c>
-      <c r="LP12" s="6">
+      <c r="LQ12" s="6">
         <v>4331634</v>
       </c>
     </row>
     <row r="14" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/INTLINE/data/576/DOS/M451082 - Selected Merchandise Trade At Current Market Prices Monthly Seasonally Adjusted.xlsx
+++ b/INTLINE/data/576/DOS/M451082 - Selected Merchandise Trade At Current Market Prices Monthly Seasonally Adjusted.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="361">
   <si>
     <t/>
   </si>
@@ -28,7 +28,7 @@
     <t>Table Title: Selected Merchandise Trade, (At Current Market Prices), Monthly, Seasonally Adjusted</t>
   </si>
   <si>
-    <t>Data last updated: 17/05/2022</t>
+    <t>Data last updated: 17/06/2022</t>
   </si>
   <si>
     <t>Check next release date</t>
@@ -43,6 +43,9 @@
     <t>Data Series</t>
   </si>
   <si>
+    <t xml:space="preserve">2022 May </t>
+  </si>
+  <si>
     <t xml:space="preserve">2022 Apr </t>
   </si>
   <si>
@@ -1087,7 +1090,7 @@
     <t>Generated by: SingStat Table Builder</t>
   </si>
   <si>
-    <t>Date generated: 14/06/2022</t>
+    <t>Date generated: 27/06/2022</t>
   </si>
   <si>
     <t>Contact: info@singstat.gov.sg</t>
@@ -1495,13 +1498,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:LQ37"/>
+  <dimension ref="A1:LR37"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="329" width="24" customWidth="1"/>
+    <col min="1" max="330" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:329" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:330" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2487,6 +2490,9 @@
         <v>0</v>
       </c>
       <c r="LQ1" t="s">
+        <v>0</v>
+      </c>
+      <c r="LR1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2523,12 +2529,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="329:329" x14ac:dyDescent="0.25">
-      <c r="LQ10" s="1" t="s">
+    <row r="10" spans="330:330" x14ac:dyDescent="0.25">
+      <c r="LR10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:329" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:330" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -3516,1099 +3522,1105 @@
       <c r="LQ11" s="3" t="s">
         <v>337</v>
       </c>
+      <c r="LR11" s="3" t="s">
+        <v>338</v>
+      </c>
     </row>
-    <row r="12" spans="1:329" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:330" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B12" s="5">
-        <v>7261474.1</v>
+        <v>9225451.8</v>
       </c>
       <c r="C12" s="5">
-        <v>7161401.7</v>
+        <v>7253778.5</v>
       </c>
       <c r="D12" s="5">
-        <v>6596986.4</v>
+        <v>7158915.6</v>
       </c>
       <c r="E12" s="5">
-        <v>7975277.8</v>
+        <v>6596966.9</v>
       </c>
       <c r="F12" s="5">
+        <v>7975182.2</v>
+      </c>
+      <c r="G12" s="5">
         <v>7069779.3</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H12" s="5">
         <v>6576222.8</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I12" s="5">
         <v>6916416.7</v>
       </c>
-      <c r="I12" s="5">
+      <c r="J12" s="5">
         <v>5691488.5</v>
       </c>
-      <c r="J12" s="5">
+      <c r="K12" s="5">
         <v>5896949.6</v>
       </c>
-      <c r="K12" s="5">
+      <c r="L12" s="5">
         <v>6881152.4</v>
       </c>
-      <c r="L12" s="5">
+      <c r="M12" s="5">
         <v>6866265.2</v>
       </c>
-      <c r="M12" s="6">
+      <c r="N12" s="6">
         <v>6014005</v>
       </c>
-      <c r="N12" s="5">
+      <c r="O12" s="5">
         <v>5597320.4</v>
       </c>
-      <c r="O12" s="6">
+      <c r="P12" s="6">
         <v>5748392</v>
       </c>
-      <c r="P12" s="6">
+      <c r="Q12" s="6">
         <v>6701597</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="R12" s="5">
         <v>5578122.9</v>
       </c>
-      <c r="R12" s="5">
+      <c r="S12" s="5">
         <v>5450692.7</v>
       </c>
-      <c r="S12" s="5">
+      <c r="T12" s="5">
         <v>5762490.8</v>
       </c>
-      <c r="T12" s="5">
+      <c r="U12" s="5">
         <v>4806415.5</v>
       </c>
-      <c r="U12" s="5">
+      <c r="V12" s="5">
         <v>5301830.6</v>
       </c>
-      <c r="V12" s="5">
+      <c r="W12" s="5">
         <v>5854758.9</v>
       </c>
-      <c r="W12" s="5">
+      <c r="X12" s="5">
         <v>6488308.3</v>
       </c>
-      <c r="X12" s="5">
+      <c r="Y12" s="5">
         <v>5871467.4</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="Z12" s="5">
         <v>6564517.5</v>
       </c>
-      <c r="Z12" s="6">
+      <c r="AA12" s="6">
         <v>7834051</v>
       </c>
-      <c r="AA12" s="5">
+      <c r="AB12" s="5">
         <v>6879195.3</v>
       </c>
-      <c r="AB12" s="5">
+      <c r="AC12" s="5">
         <v>7474927.1</v>
       </c>
-      <c r="AC12" s="5">
+      <c r="AD12" s="5">
         <v>6854094.5</v>
       </c>
-      <c r="AD12" s="5">
+      <c r="AE12" s="5">
         <v>6048211.3</v>
       </c>
-      <c r="AE12" s="5">
+      <c r="AF12" s="5">
         <v>5794329.1</v>
       </c>
-      <c r="AF12" s="5">
+      <c r="AG12" s="5">
         <v>6654128.6</v>
       </c>
-      <c r="AG12" s="6">
+      <c r="AH12" s="6">
         <v>5858805</v>
       </c>
-      <c r="AH12" s="5">
+      <c r="AI12" s="5">
         <v>6421595.6</v>
       </c>
-      <c r="AI12" s="5">
+      <c r="AJ12" s="5">
         <v>5381620.8</v>
       </c>
-      <c r="AJ12" s="5">
+      <c r="AK12" s="5">
         <v>5821076.4</v>
       </c>
-      <c r="AK12" s="5">
+      <c r="AL12" s="5">
         <v>5336043.3</v>
       </c>
-      <c r="AL12" s="5">
+      <c r="AM12" s="5">
         <v>5758988.5</v>
       </c>
-      <c r="AM12" s="5">
+      <c r="AN12" s="5">
         <v>5872661.5</v>
       </c>
-      <c r="AN12" s="5">
+      <c r="AO12" s="5">
         <v>5603609.4</v>
       </c>
-      <c r="AO12" s="6">
+      <c r="AP12" s="6">
         <v>5756164</v>
       </c>
-      <c r="AP12" s="5">
+      <c r="AQ12" s="5">
         <v>6348326.8</v>
       </c>
-      <c r="AQ12" s="5">
+      <c r="AR12" s="5">
         <v>6588762.2</v>
       </c>
-      <c r="AR12" s="6">
+      <c r="AS12" s="6">
         <v>6341851</v>
       </c>
-      <c r="AS12" s="5">
+      <c r="AT12" s="5">
         <v>6569396.9</v>
       </c>
-      <c r="AT12" s="5">
+      <c r="AU12" s="5">
         <v>5994415.1</v>
       </c>
-      <c r="AU12" s="5">
+      <c r="AV12" s="5">
         <v>6253283.6</v>
       </c>
-      <c r="AV12" s="5">
+      <c r="AW12" s="5">
         <v>5800593.8</v>
       </c>
-      <c r="AW12" s="5">
+      <c r="AX12" s="5">
         <v>5708284.8</v>
       </c>
-      <c r="AX12" s="6">
+      <c r="AY12" s="6">
         <v>5862066</v>
       </c>
-      <c r="AY12" s="5">
+      <c r="AZ12" s="5">
         <v>5377796.9</v>
       </c>
-      <c r="AZ12" s="5">
+      <c r="BA12" s="5">
         <v>5688755.1</v>
       </c>
-      <c r="BA12" s="5">
+      <c r="BB12" s="5">
         <v>5672354.8</v>
       </c>
-      <c r="BB12" s="5">
+      <c r="BC12" s="5">
         <v>6010191.4</v>
       </c>
-      <c r="BC12" s="5">
+      <c r="BD12" s="5">
         <v>6814991.4</v>
       </c>
-      <c r="BD12" s="5">
+      <c r="BE12" s="5">
         <v>6778478.5</v>
       </c>
-      <c r="BE12" s="6">
+      <c r="BF12" s="6">
         <v>5908310</v>
       </c>
-      <c r="BF12" s="5">
+      <c r="BG12" s="5">
         <v>5093162.9</v>
       </c>
-      <c r="BG12" s="5">
+      <c r="BH12" s="5">
         <v>4953444.2</v>
       </c>
-      <c r="BH12" s="5">
+      <c r="BI12" s="5">
         <v>5215766.1</v>
       </c>
-      <c r="BI12" s="5">
+      <c r="BJ12" s="5">
         <v>6174262.6</v>
       </c>
-      <c r="BJ12" s="6">
+      <c r="BK12" s="6">
         <v>4684837</v>
       </c>
-      <c r="BK12" s="6">
+      <c r="BL12" s="6">
         <v>5219875</v>
       </c>
-      <c r="BL12" s="5">
+      <c r="BM12" s="5">
         <v>5177224.6</v>
       </c>
-      <c r="BM12" s="5">
+      <c r="BN12" s="5">
         <v>6414717.7</v>
       </c>
-      <c r="BN12" s="5">
+      <c r="BO12" s="5">
         <v>5803591.4</v>
       </c>
-      <c r="BO12" s="5">
+      <c r="BP12" s="5">
         <v>6081844.5</v>
       </c>
-      <c r="BP12" s="5">
+      <c r="BQ12" s="5">
         <v>4486437.7</v>
       </c>
-      <c r="BQ12" s="5">
+      <c r="BR12" s="5">
         <v>4446221.9</v>
       </c>
-      <c r="BR12" s="5">
+      <c r="BS12" s="5">
         <v>5333105.5</v>
       </c>
-      <c r="BS12" s="6">
+      <c r="BT12" s="6">
         <v>3875134</v>
       </c>
-      <c r="BT12" s="5">
+      <c r="BU12" s="5">
         <v>4855940.5</v>
       </c>
-      <c r="BU12" s="5">
+      <c r="BV12" s="5">
         <v>4762057.1</v>
       </c>
-      <c r="BV12" s="5">
+      <c r="BW12" s="5">
         <v>4051367.4</v>
       </c>
-      <c r="BW12" s="5">
+      <c r="BX12" s="5">
         <v>4838781.9</v>
       </c>
-      <c r="BX12" s="5">
+      <c r="BY12" s="5">
         <v>7997628.5</v>
       </c>
-      <c r="BY12" s="5">
+      <c r="BZ12" s="5">
         <v>3948227.7</v>
       </c>
-      <c r="BZ12" s="5">
+      <c r="CA12" s="5">
         <v>4388427.3</v>
       </c>
-      <c r="CA12" s="5">
+      <c r="CB12" s="5">
         <v>3424618.2</v>
       </c>
-      <c r="CB12" s="5">
+      <c r="CC12" s="5">
         <v>3801474.2</v>
       </c>
-      <c r="CC12" s="5">
+      <c r="CD12" s="5">
         <v>4906583.3</v>
       </c>
-      <c r="CD12" s="5">
+      <c r="CE12" s="5">
         <v>6360569.4</v>
       </c>
-      <c r="CE12" s="5">
+      <c r="CF12" s="5">
         <v>4208433.2</v>
       </c>
-      <c r="CF12" s="5">
+      <c r="CG12" s="5">
         <v>4753283.2</v>
       </c>
-      <c r="CG12" s="5">
+      <c r="CH12" s="5">
         <v>4073335.1</v>
       </c>
-      <c r="CH12" s="6">
+      <c r="CI12" s="6">
         <v>4485926</v>
       </c>
-      <c r="CI12" s="5">
+      <c r="CJ12" s="5">
         <v>4775347.5</v>
       </c>
-      <c r="CJ12" s="5">
+      <c r="CK12" s="5">
         <v>4345229.9</v>
       </c>
-      <c r="CK12" s="5">
+      <c r="CL12" s="5">
         <v>2565504.9</v>
       </c>
-      <c r="CL12" s="5">
+      <c r="CM12" s="5">
         <v>5825672.6</v>
       </c>
-      <c r="CM12" s="5">
+      <c r="CN12" s="5">
         <v>3405385.1</v>
       </c>
-      <c r="CN12" s="5">
+      <c r="CO12" s="5">
         <v>3414596.8</v>
       </c>
-      <c r="CO12" s="5">
+      <c r="CP12" s="5">
         <v>4107428.1</v>
       </c>
-      <c r="CP12" s="5">
+      <c r="CQ12" s="5">
         <v>4850817.2</v>
       </c>
-      <c r="CQ12" s="5">
+      <c r="CR12" s="5">
         <v>5312418.6</v>
       </c>
-      <c r="CR12" s="5">
+      <c r="CS12" s="5">
         <v>4391614.3</v>
       </c>
-      <c r="CS12" s="6">
+      <c r="CT12" s="6">
         <v>4924708</v>
       </c>
-      <c r="CT12" s="5">
+      <c r="CU12" s="5">
         <v>6075305.5</v>
       </c>
-      <c r="CU12" s="5">
+      <c r="CV12" s="5">
         <v>5025260.6</v>
       </c>
-      <c r="CV12" s="6">
+      <c r="CW12" s="6">
         <v>5343755</v>
       </c>
-      <c r="CW12" s="5">
+      <c r="CX12" s="5">
         <v>5471752.4</v>
       </c>
-      <c r="CX12" s="5">
+      <c r="CY12" s="5">
         <v>5356847.2</v>
       </c>
-      <c r="CY12" s="5">
+      <c r="CZ12" s="5">
         <v>3365273.5</v>
       </c>
-      <c r="CZ12" s="5">
+      <c r="DA12" s="5">
         <v>6041603.7</v>
       </c>
-      <c r="DA12" s="5">
+      <c r="DB12" s="5">
         <v>5426702.6</v>
       </c>
-      <c r="DB12" s="5">
+      <c r="DC12" s="5">
         <v>5054142.3</v>
       </c>
-      <c r="DC12" s="5">
+      <c r="DD12" s="5">
         <v>5488481.2</v>
       </c>
-      <c r="DD12" s="5">
+      <c r="DE12" s="5">
         <v>5005502.8</v>
       </c>
-      <c r="DE12" s="5">
+      <c r="DF12" s="5">
         <v>5435791.7</v>
       </c>
-      <c r="DF12" s="5">
+      <c r="DG12" s="5">
         <v>4930440.1</v>
       </c>
-      <c r="DG12" s="5">
+      <c r="DH12" s="5">
         <v>5513082.7</v>
       </c>
-      <c r="DH12" s="5">
+      <c r="DI12" s="5">
         <v>5650256.8</v>
       </c>
-      <c r="DI12" s="5">
+      <c r="DJ12" s="5">
         <v>5717183.1</v>
       </c>
-      <c r="DJ12" s="5">
+      <c r="DK12" s="5">
         <v>5533128.8</v>
       </c>
-      <c r="DK12" s="5">
+      <c r="DL12" s="5">
         <v>4977097.2</v>
       </c>
-      <c r="DL12" s="5">
+      <c r="DM12" s="5">
         <v>5432264.1</v>
       </c>
-      <c r="DM12" s="5">
+      <c r="DN12" s="5">
         <v>5320127.1</v>
       </c>
-      <c r="DN12" s="5">
+      <c r="DO12" s="5">
         <v>5957960.9</v>
       </c>
-      <c r="DO12" s="5">
+      <c r="DP12" s="5">
         <v>5478756.8</v>
       </c>
-      <c r="DP12" s="5">
+      <c r="DQ12" s="5">
         <v>6805859.7</v>
       </c>
-      <c r="DQ12" s="5">
+      <c r="DR12" s="5">
         <v>5954068.2</v>
       </c>
-      <c r="DR12" s="5">
+      <c r="DS12" s="5">
         <v>5151284.2</v>
       </c>
-      <c r="DS12" s="5">
+      <c r="DT12" s="5">
         <v>5796436.4</v>
       </c>
-      <c r="DT12" s="5">
+      <c r="DU12" s="5">
         <v>6054294.2</v>
       </c>
-      <c r="DU12" s="5">
+      <c r="DV12" s="5">
         <v>5681927.9</v>
       </c>
-      <c r="DV12" s="5">
+      <c r="DW12" s="5">
         <v>6160067.6</v>
       </c>
-      <c r="DW12" s="5">
+      <c r="DX12" s="5">
         <v>6609896.2</v>
       </c>
-      <c r="DX12" s="5">
+      <c r="DY12" s="5">
         <v>3779809.2</v>
       </c>
-      <c r="DY12" s="5">
+      <c r="DZ12" s="5">
         <v>5368470.9</v>
       </c>
-      <c r="DZ12" s="5">
+      <c r="EA12" s="5">
         <v>5428038.2</v>
       </c>
-      <c r="EA12" s="5">
+      <c r="EB12" s="5">
         <v>5555801.3</v>
       </c>
-      <c r="EB12" s="5">
+      <c r="EC12" s="5">
         <v>4863519.6</v>
       </c>
-      <c r="EC12" s="5">
+      <c r="ED12" s="5">
         <v>5282286.8</v>
       </c>
-      <c r="ED12" s="5">
+      <c r="EE12" s="5">
         <v>6119382.9</v>
       </c>
-      <c r="EE12" s="5">
+      <c r="EF12" s="5">
         <v>5643137.3</v>
       </c>
-      <c r="EF12" s="5">
+      <c r="EG12" s="5">
         <v>4943971.9</v>
       </c>
-      <c r="EG12" s="5">
+      <c r="EH12" s="5">
         <v>5348433.8</v>
       </c>
-      <c r="EH12" s="5">
+      <c r="EI12" s="5">
         <v>4666519.4</v>
       </c>
-      <c r="EI12" s="5">
+      <c r="EJ12" s="5">
         <v>5317116.5</v>
       </c>
-      <c r="EJ12" s="5">
+      <c r="EK12" s="5">
         <v>4833534.8</v>
       </c>
-      <c r="EK12" s="5">
+      <c r="EL12" s="5">
         <v>5059864.7</v>
       </c>
-      <c r="EL12" s="5">
+      <c r="EM12" s="5">
         <v>5225803.6</v>
       </c>
-      <c r="EM12" s="5">
+      <c r="EN12" s="5">
         <v>5331102.2</v>
       </c>
-      <c r="EN12" s="5">
+      <c r="EO12" s="5">
         <v>5255658.9</v>
       </c>
-      <c r="EO12" s="6">
+      <c r="EP12" s="6">
         <v>5396068</v>
       </c>
-      <c r="EP12" s="5">
+      <c r="EQ12" s="5">
         <v>5476350.4</v>
       </c>
-      <c r="EQ12" s="5">
+      <c r="ER12" s="5">
         <v>5217022.5</v>
       </c>
-      <c r="ER12" s="5">
+      <c r="ES12" s="5">
         <v>5513943.9</v>
       </c>
-      <c r="ES12" s="5">
+      <c r="ET12" s="5">
         <v>4695596.2</v>
       </c>
-      <c r="ET12" s="5">
+      <c r="EU12" s="5">
         <v>5043264.4</v>
       </c>
-      <c r="EU12" s="5">
+      <c r="EV12" s="5">
         <v>4509661.6</v>
       </c>
-      <c r="EV12" s="5">
+      <c r="EW12" s="5">
         <v>4513110.2</v>
       </c>
-      <c r="EW12" s="5">
+      <c r="EX12" s="5">
         <v>4733943.5</v>
       </c>
-      <c r="EX12" s="5">
+      <c r="EY12" s="5">
         <v>4260136.9</v>
       </c>
-      <c r="EY12" s="5">
+      <c r="EZ12" s="5">
         <v>4208268.7</v>
       </c>
-      <c r="EZ12" s="5">
+      <c r="FA12" s="5">
         <v>4342672.3</v>
       </c>
-      <c r="FA12" s="5">
+      <c r="FB12" s="5">
         <v>3604858.9</v>
       </c>
-      <c r="FB12" s="5">
+      <c r="FC12" s="5">
         <v>3826359.4</v>
       </c>
-      <c r="FC12" s="5">
+      <c r="FD12" s="5">
         <v>3786775.6</v>
       </c>
-      <c r="FD12" s="6">
+      <c r="FE12" s="6">
         <v>4739621</v>
       </c>
-      <c r="FE12" s="5">
+      <c r="FF12" s="5">
         <v>4668614.6</v>
       </c>
-      <c r="FF12" s="5">
+      <c r="FG12" s="5">
         <v>5156637.7</v>
       </c>
-      <c r="FG12" s="5">
+      <c r="FH12" s="5">
         <v>5370397.8</v>
       </c>
-      <c r="FH12" s="5">
+      <c r="FI12" s="5">
         <v>6331957.9</v>
       </c>
-      <c r="FI12" s="5">
+      <c r="FJ12" s="5">
         <v>6569047.3</v>
       </c>
-      <c r="FJ12" s="5">
+      <c r="FK12" s="5">
         <v>5781701.3</v>
       </c>
-      <c r="FK12" s="5">
+      <c r="FL12" s="5">
         <v>5598365.9</v>
       </c>
-      <c r="FL12" s="5">
+      <c r="FM12" s="5">
         <v>5468693.6</v>
       </c>
-      <c r="FM12" s="6">
+      <c r="FN12" s="6">
         <v>5125773</v>
       </c>
-      <c r="FN12" s="5">
+      <c r="FO12" s="5">
         <v>5655262.1</v>
       </c>
-      <c r="FO12" s="5">
+      <c r="FP12" s="5">
         <v>5816074.4</v>
       </c>
-      <c r="FP12" s="5">
+      <c r="FQ12" s="5">
         <v>5621955.7</v>
       </c>
-      <c r="FQ12" s="5">
+      <c r="FR12" s="5">
         <v>5553831.8</v>
       </c>
-      <c r="FR12" s="5">
+      <c r="FS12" s="5">
         <v>5782745.4</v>
       </c>
-      <c r="FS12" s="5">
+      <c r="FT12" s="5">
         <v>5558007.5</v>
       </c>
-      <c r="FT12" s="5">
+      <c r="FU12" s="5">
         <v>5276777.6</v>
       </c>
-      <c r="FU12" s="5">
+      <c r="FV12" s="5">
         <v>5311808.5</v>
       </c>
-      <c r="FV12" s="5">
+      <c r="FW12" s="5">
         <v>5494408.7</v>
       </c>
-      <c r="FW12" s="5">
+      <c r="FX12" s="5">
         <v>5721479.8</v>
       </c>
-      <c r="FX12" s="5">
+      <c r="FY12" s="5">
         <v>5286310.4</v>
       </c>
-      <c r="FY12" s="5">
+      <c r="FZ12" s="5">
         <v>6198280.7</v>
       </c>
-      <c r="FZ12" s="5">
+      <c r="GA12" s="5">
         <v>5557493.5</v>
       </c>
-      <c r="GA12" s="5">
+      <c r="GB12" s="5">
         <v>5620502.9</v>
       </c>
-      <c r="GB12" s="5">
+      <c r="GC12" s="5">
         <v>5370250.6</v>
       </c>
-      <c r="GC12" s="5">
+      <c r="GD12" s="5">
         <v>5358807.8</v>
       </c>
-      <c r="GD12" s="5">
+      <c r="GE12" s="5">
         <v>5427547.3</v>
       </c>
-      <c r="GE12" s="5">
+      <c r="GF12" s="5">
         <v>5566296.7</v>
       </c>
-      <c r="GF12" s="5">
+      <c r="GG12" s="5">
         <v>5297779.3</v>
       </c>
-      <c r="GG12" s="5">
+      <c r="GH12" s="5">
         <v>5369578.3</v>
       </c>
-      <c r="GH12" s="5">
+      <c r="GI12" s="5">
         <v>5501886.5</v>
       </c>
-      <c r="GI12" s="5">
+      <c r="GJ12" s="5">
         <v>5746910.6</v>
       </c>
-      <c r="GJ12" s="5">
+      <c r="GK12" s="5">
         <v>6404763.6</v>
       </c>
-      <c r="GK12" s="5">
+      <c r="GL12" s="5">
         <v>6259748.4</v>
       </c>
-      <c r="GL12" s="5">
+      <c r="GM12" s="5">
         <v>5918741.8</v>
       </c>
-      <c r="GM12" s="5">
+      <c r="GN12" s="5">
         <v>5883148.6</v>
       </c>
-      <c r="GN12" s="5">
+      <c r="GO12" s="5">
         <v>6094987.4</v>
       </c>
-      <c r="GO12" s="5">
+      <c r="GP12" s="5">
         <v>5752899.1</v>
       </c>
-      <c r="GP12" s="5">
+      <c r="GQ12" s="5">
         <v>5805248.5</v>
       </c>
-      <c r="GQ12" s="5">
+      <c r="GR12" s="5">
         <v>5740093.8</v>
       </c>
-      <c r="GR12" s="5">
+      <c r="GS12" s="5">
         <v>6340397.4</v>
       </c>
-      <c r="GS12" s="5">
+      <c r="GT12" s="5">
         <v>6345225.5</v>
       </c>
-      <c r="GT12" s="5">
+      <c r="GU12" s="5">
         <v>6154036.2</v>
       </c>
-      <c r="GU12" s="5">
+      <c r="GV12" s="5">
         <v>5652695.4</v>
       </c>
-      <c r="GV12" s="5">
+      <c r="GW12" s="5">
         <v>5799566.8</v>
       </c>
-      <c r="GW12" s="5">
+      <c r="GX12" s="5">
         <v>5222216.8</v>
       </c>
-      <c r="GX12" s="5">
+      <c r="GY12" s="5">
         <v>5798882.6</v>
       </c>
-      <c r="GY12" s="5">
+      <c r="GZ12" s="5">
         <v>5627956.7</v>
       </c>
-      <c r="GZ12" s="5">
+      <c r="HA12" s="5">
         <v>5342225.9</v>
       </c>
-      <c r="HA12" s="5">
+      <c r="HB12" s="5">
         <v>5924210.8</v>
       </c>
-      <c r="HB12" s="5">
+      <c r="HC12" s="5">
         <v>5347370.9</v>
       </c>
-      <c r="HC12" s="5">
+      <c r="HD12" s="5">
         <v>5488428.6</v>
       </c>
-      <c r="HD12" s="5">
+      <c r="HE12" s="5">
         <v>5216558.8</v>
       </c>
-      <c r="HE12" s="5">
+      <c r="HF12" s="5">
         <v>4811021.4</v>
       </c>
-      <c r="HF12" s="5">
+      <c r="HG12" s="5">
         <v>5144874.8</v>
       </c>
-      <c r="HG12" s="5">
+      <c r="HH12" s="5">
         <v>5018785.4</v>
       </c>
-      <c r="HH12" s="5">
+      <c r="HI12" s="5">
         <v>5086259.7</v>
       </c>
-      <c r="HI12" s="5">
+      <c r="HJ12" s="5">
         <v>5043053.2</v>
       </c>
-      <c r="HJ12" s="5">
+      <c r="HK12" s="5">
         <v>5057871.2</v>
       </c>
-      <c r="HK12" s="6">
+      <c r="HL12" s="6">
         <v>4999448</v>
       </c>
-      <c r="HL12" s="5">
+      <c r="HM12" s="5">
         <v>4916045.6</v>
       </c>
-      <c r="HM12" s="5">
+      <c r="HN12" s="5">
         <v>4972514.9</v>
       </c>
-      <c r="HN12" s="5">
+      <c r="HO12" s="5">
         <v>4580633.8</v>
       </c>
-      <c r="HO12" s="5">
+      <c r="HP12" s="5">
         <v>4187399.2</v>
       </c>
-      <c r="HP12" s="5">
+      <c r="HQ12" s="5">
         <v>4226974.9</v>
       </c>
-      <c r="HQ12" s="5">
+      <c r="HR12" s="5">
         <v>4235854.2</v>
       </c>
-      <c r="HR12" s="5">
+      <c r="HS12" s="5">
         <v>3863623.4</v>
       </c>
-      <c r="HS12" s="5">
+      <c r="HT12" s="5">
         <v>4229085.6</v>
       </c>
-      <c r="HT12" s="5">
+      <c r="HU12" s="5">
         <v>4102518.2</v>
       </c>
-      <c r="HU12" s="5">
+      <c r="HV12" s="5">
         <v>4039437.6</v>
       </c>
-      <c r="HV12" s="5">
+      <c r="HW12" s="5">
         <v>3824672.3</v>
       </c>
-      <c r="HW12" s="5">
+      <c r="HX12" s="5">
         <v>3969541.6</v>
       </c>
-      <c r="HX12" s="5">
+      <c r="HY12" s="5">
         <v>3728486.5</v>
       </c>
-      <c r="HY12" s="5">
+      <c r="HZ12" s="5">
         <v>3731041.3</v>
       </c>
-      <c r="HZ12" s="5">
+      <c r="IA12" s="5">
         <v>3815882.6</v>
       </c>
-      <c r="IA12" s="5">
+      <c r="IB12" s="5">
         <v>4023717.5</v>
       </c>
-      <c r="IB12" s="5">
+      <c r="IC12" s="5">
         <v>3922950.3</v>
       </c>
-      <c r="IC12" s="6">
+      <c r="ID12" s="6">
         <v>4156166</v>
       </c>
-      <c r="ID12" s="5">
+      <c r="IE12" s="5">
         <v>4242912.7</v>
       </c>
-      <c r="IE12" s="5">
+      <c r="IF12" s="5">
         <v>4185438.3</v>
       </c>
-      <c r="IF12" s="5">
+      <c r="IG12" s="5">
         <v>3771892.9</v>
       </c>
-      <c r="IG12" s="5">
+      <c r="IH12" s="5">
         <v>4298816.4</v>
       </c>
-      <c r="IH12" s="5">
+      <c r="II12" s="5">
         <v>4167024.2</v>
       </c>
-      <c r="II12" s="5">
+      <c r="IJ12" s="5">
         <v>3910817.2</v>
       </c>
-      <c r="IJ12" s="6">
+      <c r="IK12" s="6">
         <v>3982235</v>
       </c>
-      <c r="IK12" s="5">
+      <c r="IL12" s="5">
         <v>4070638.1</v>
       </c>
-      <c r="IL12" s="5">
+      <c r="IM12" s="5">
         <v>4084229.8</v>
       </c>
-      <c r="IM12" s="5">
+      <c r="IN12" s="5">
         <v>3859076.3</v>
       </c>
-      <c r="IN12" s="5">
+      <c r="IO12" s="5">
         <v>3958037.1</v>
       </c>
-      <c r="IO12" s="5">
+      <c r="IP12" s="5">
         <v>3472652.3</v>
       </c>
-      <c r="IP12" s="5">
+      <c r="IQ12" s="5">
         <v>3794413.2</v>
       </c>
-      <c r="IQ12" s="5">
+      <c r="IR12" s="5">
         <v>3654872.6</v>
       </c>
-      <c r="IR12" s="6">
+      <c r="IS12" s="6">
         <v>3764431</v>
       </c>
-      <c r="IS12" s="5">
+      <c r="IT12" s="5">
         <v>4173977.5</v>
       </c>
-      <c r="IT12" s="5">
+      <c r="IU12" s="5">
         <v>4438687.9</v>
       </c>
-      <c r="IU12" s="6">
+      <c r="IV12" s="6">
         <v>4745117</v>
       </c>
-      <c r="IV12" s="5">
+      <c r="IW12" s="5">
         <v>5357470.5</v>
       </c>
-      <c r="IW12" s="5">
+      <c r="IX12" s="5">
         <v>5325354.2</v>
       </c>
-      <c r="IX12" s="5">
+      <c r="IY12" s="5">
         <v>5482714.3</v>
       </c>
-      <c r="IY12" s="6">
+      <c r="IZ12" s="6">
         <v>5928975</v>
       </c>
-      <c r="IZ12" s="5">
+      <c r="JA12" s="5">
         <v>5739974.4</v>
       </c>
-      <c r="JA12" s="5">
+      <c r="JB12" s="5">
         <v>5995743.5</v>
       </c>
-      <c r="JB12" s="5">
+      <c r="JC12" s="5">
         <v>5759306.2</v>
       </c>
-      <c r="JC12" s="6">
+      <c r="JD12" s="6">
         <v>5907238</v>
       </c>
-      <c r="JD12" s="5">
+      <c r="JE12" s="5">
         <v>6199453.4</v>
       </c>
-      <c r="JE12" s="5">
+      <c r="JF12" s="5">
         <v>5112953.1</v>
       </c>
-      <c r="JF12" s="5">
+      <c r="JG12" s="5">
         <v>5127041.5</v>
       </c>
-      <c r="JG12" s="5">
+      <c r="JH12" s="5">
         <v>5294796.4</v>
       </c>
-      <c r="JH12" s="5">
+      <c r="JI12" s="5">
         <v>5028756.9</v>
       </c>
-      <c r="JI12" s="6">
+      <c r="JJ12" s="6">
         <v>5011968</v>
       </c>
-      <c r="JJ12" s="5">
+      <c r="JK12" s="5">
         <v>5063682.2</v>
       </c>
-      <c r="JK12" s="5">
+      <c r="JL12" s="5">
         <v>5430323.7</v>
       </c>
-      <c r="JL12" s="5">
+      <c r="JM12" s="5">
         <v>5012809.2</v>
       </c>
-      <c r="JM12" s="6">
+      <c r="JN12" s="6">
         <v>4992205</v>
       </c>
-      <c r="JN12" s="5">
+      <c r="JO12" s="5">
         <v>4972017.6</v>
       </c>
-      <c r="JO12" s="5">
+      <c r="JP12" s="5">
         <v>5157003.7</v>
       </c>
-      <c r="JP12" s="5">
+      <c r="JQ12" s="5">
         <v>5029216.6</v>
       </c>
-      <c r="JQ12" s="5">
+      <c r="JR12" s="5">
         <v>5027913.1</v>
       </c>
-      <c r="JR12" s="5">
+      <c r="JS12" s="5">
         <v>5012899.4</v>
       </c>
-      <c r="JS12" s="5">
+      <c r="JT12" s="5">
         <v>4729881.9</v>
       </c>
-      <c r="JT12" s="5">
+      <c r="JU12" s="5">
         <v>4586261.2</v>
       </c>
-      <c r="JU12" s="6">
+      <c r="JV12" s="6">
         <v>4619438</v>
       </c>
-      <c r="JV12" s="5">
+      <c r="JW12" s="5">
         <v>4434448.9</v>
       </c>
-      <c r="JW12" s="5">
+      <c r="JX12" s="5">
         <v>4207863.2</v>
       </c>
-      <c r="JX12" s="5">
+      <c r="JY12" s="5">
         <v>4257796.6</v>
       </c>
-      <c r="JY12" s="5">
+      <c r="JZ12" s="5">
         <v>4434468.3</v>
       </c>
-      <c r="JZ12" s="5">
+      <c r="KA12" s="5">
         <v>4206546.2</v>
       </c>
-      <c r="KA12" s="5">
+      <c r="KB12" s="5">
         <v>4147503.1</v>
       </c>
-      <c r="KB12" s="5">
+      <c r="KC12" s="5">
         <v>4339892.5</v>
       </c>
-      <c r="KC12" s="5">
+      <c r="KD12" s="5">
         <v>4277790.3</v>
       </c>
-      <c r="KD12" s="5">
+      <c r="KE12" s="5">
         <v>4527059.3</v>
       </c>
-      <c r="KE12" s="6">
+      <c r="KF12" s="6">
         <v>4325862</v>
       </c>
-      <c r="KF12" s="5">
+      <c r="KG12" s="5">
         <v>5069207.8</v>
       </c>
-      <c r="KG12" s="5">
+      <c r="KH12" s="5">
         <v>4939538.1</v>
       </c>
-      <c r="KH12" s="5">
+      <c r="KI12" s="5">
         <v>5360933.5</v>
       </c>
-      <c r="KI12" s="5">
+      <c r="KJ12" s="5">
         <v>5477815.1</v>
       </c>
-      <c r="KJ12" s="5">
+      <c r="KK12" s="5">
         <v>5533652.3</v>
       </c>
-      <c r="KK12" s="5">
+      <c r="KL12" s="5">
         <v>5771664.7</v>
       </c>
-      <c r="KL12" s="5">
+      <c r="KM12" s="5">
         <v>5673377.3</v>
       </c>
-      <c r="KM12" s="5">
+      <c r="KN12" s="5">
         <v>5646481.5</v>
       </c>
-      <c r="KN12" s="5">
+      <c r="KO12" s="5">
         <v>5490678.8</v>
       </c>
-      <c r="KO12" s="5">
+      <c r="KP12" s="5">
         <v>5481839.9</v>
       </c>
-      <c r="KP12" s="5">
+      <c r="KQ12" s="5">
         <v>5274826.3</v>
       </c>
-      <c r="KQ12" s="5">
+      <c r="KR12" s="5">
         <v>5491037.6</v>
       </c>
-      <c r="KR12" s="5">
+      <c r="KS12" s="5">
         <v>4934863.1</v>
       </c>
-      <c r="KS12" s="5">
+      <c r="KT12" s="5">
         <v>5201933.6</v>
       </c>
-      <c r="KT12" s="5">
+      <c r="KU12" s="5">
         <v>4973409.6</v>
       </c>
-      <c r="KU12" s="5">
+      <c r="KV12" s="5">
         <v>4940892.8</v>
       </c>
-      <c r="KV12" s="5">
+      <c r="KW12" s="5">
         <v>4857366.6</v>
       </c>
-      <c r="KW12" s="5">
+      <c r="KX12" s="5">
         <v>4709743.8</v>
       </c>
-      <c r="KX12" s="5">
+      <c r="KY12" s="5">
         <v>4870917.8</v>
       </c>
-      <c r="KY12" s="5">
+      <c r="KZ12" s="5">
         <v>4836927.3</v>
       </c>
-      <c r="KZ12" s="5">
+      <c r="LA12" s="5">
         <v>5189538.2</v>
       </c>
-      <c r="LA12" s="5">
+      <c r="LB12" s="5">
         <v>5074311.1</v>
       </c>
-      <c r="LB12" s="5">
+      <c r="LC12" s="5">
         <v>5348719.4</v>
       </c>
-      <c r="LC12" s="5">
+      <c r="LD12" s="5">
         <v>5397920.1</v>
       </c>
-      <c r="LD12" s="5">
+      <c r="LE12" s="5">
         <v>5454066.4</v>
       </c>
-      <c r="LE12" s="5">
+      <c r="LF12" s="5">
         <v>5468327.4</v>
       </c>
-      <c r="LF12" s="5">
+      <c r="LG12" s="5">
         <v>5362367.1</v>
       </c>
-      <c r="LG12" s="5">
+      <c r="LH12" s="5">
         <v>5414920.2</v>
       </c>
-      <c r="LH12" s="5">
+      <c r="LI12" s="5">
         <v>5548273.2</v>
       </c>
-      <c r="LI12" s="5">
+      <c r="LJ12" s="5">
         <v>5409118.2</v>
       </c>
-      <c r="LJ12" s="5">
+      <c r="LK12" s="5">
         <v>5468786.3</v>
       </c>
-      <c r="LK12" s="5">
+      <c r="LL12" s="5">
         <v>5601159.5</v>
       </c>
-      <c r="LL12" s="5">
+      <c r="LM12" s="5">
         <v>5374044.2</v>
       </c>
-      <c r="LM12" s="5">
+      <c r="LN12" s="5">
         <v>5514493.6</v>
       </c>
-      <c r="LN12" s="5">
+      <c r="LO12" s="5">
         <v>5186353.5</v>
       </c>
-      <c r="LO12" s="5">
+      <c r="LP12" s="5">
         <v>5005879.4</v>
       </c>
-      <c r="LP12" s="5">
+      <c r="LQ12" s="5">
         <v>4788219.7</v>
       </c>
-      <c r="LQ12" s="6">
+      <c r="LR12" s="6">
         <v>4331634</v>
       </c>
     </row>
     <row r="14" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
